--- a/Docs/perf.xlsx
+++ b/Docs/perf.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawai\Documents\GitHub\MemcachedTranscoder\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\github\MemcachedTranscoder\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12495"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1 (upgrade lib)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>Serialize</t>
     <phoneticPr fontId="1"/>
@@ -69,25 +71,40 @@
     <t>MessagePackMap</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MessagePack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MessagePack+Gzip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,7 +139,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +157,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -158,7 +175,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -191,7 +208,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -203,7 +220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -219,7 +236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$13</c:f>
+              <c:f>Sheet2!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -240,9 +257,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$12:$N$12</c:f>
+              <c:f>Sheet2!$I$12:$O$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Default</c:v>
                 </c:pt>
@@ -260,33 +277,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>MessagePackMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MessagePack+Gzip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$13:$N$13</c:f>
+              <c:f>Sheet2!$I$13:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>735</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>775</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>772</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>327</c:v>
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,7 +320,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$14</c:f>
+              <c:f>Sheet2!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -318,9 +341,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$12:$N$12</c:f>
+              <c:f>Sheet2!$I$12:$O$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Default</c:v>
                 </c:pt>
@@ -338,33 +361,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>MessagePackMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MessagePack+Gzip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$N$14</c:f>
+              <c:f>Sheet2!$I$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>750</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1642</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>892</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>535</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>783</c:v>
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,7 +404,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$15</c:f>
+              <c:f>Sheet2!$H$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -396,9 +425,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$12:$N$12</c:f>
+              <c:f>Sheet2!$I$12:$O$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Default</c:v>
                 </c:pt>
@@ -416,16 +445,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>MessagePackMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MessagePack+Gzip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$15:$N$15</c:f>
+              <c:f>Sheet2!$I$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>305</c:v>
                 </c:pt>
@@ -443,6 +475,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,11 +493,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-624202736"/>
-        <c:axId val="-624202192"/>
+        <c:axId val="254014048"/>
+        <c:axId val="254014608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-624202736"/>
+        <c:axId val="254014048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +525,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -502,10 +537,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-624202192"/>
+        <c:crossAx val="254014608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -513,7 +548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-624202192"/>
+        <c:axId val="254014608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +584,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -561,10 +596,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-624202736"/>
+        <c:crossAx val="254014048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -592,7 +627,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -604,7 +639,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -634,7 +669,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -648,7 +683,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -666,7 +701,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -700,7 +735,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -712,7 +747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -728,7 +763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$20</c:f>
+              <c:f>Sheet2!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,9 +784,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$19:$N$19</c:f>
+              <c:f>Sheet2!$I$19:$O$19</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Default</c:v>
                 </c:pt>
@@ -769,33 +804,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>MessagePackMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MessagePack+Gzip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$20:$N$20</c:f>
+              <c:f>Sheet2!$I$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4234</c:v>
+                  <c:v>2378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3874</c:v>
+                  <c:v>1821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2189</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5618</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>752</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1453</c:v>
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,7 +847,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$21</c:f>
+              <c:f>Sheet2!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -827,9 +868,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$19:$N$19</c:f>
+              <c:f>Sheet2!$I$19:$O$19</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Default</c:v>
                 </c:pt>
@@ -847,33 +888,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>MessagePackMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MessagePack+Gzip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$21:$N$21</c:f>
+              <c:f>Sheet2!$I$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4186</c:v>
+                  <c:v>2173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9532</c:v>
+                  <c:v>4434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3040</c:v>
+                  <c:v>1712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6275</c:v>
+                  <c:v>1951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2696</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5088</c:v>
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,7 +931,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$22</c:f>
+              <c:f>Sheet2!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -905,9 +952,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$19:$N$19</c:f>
+              <c:f>Sheet2!$I$19:$O$19</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Default</c:v>
                 </c:pt>
@@ -925,16 +972,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>MessagePackMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MessagePack+Gzip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$22:$N$22</c:f>
+              <c:f>Sheet2!$I$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>712</c:v>
                 </c:pt>
@@ -952,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,11 +1020,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-423533136"/>
-        <c:axId val="-423515184"/>
+        <c:axId val="253606592"/>
+        <c:axId val="253607152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-423533136"/>
+        <c:axId val="253606592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1052,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1011,10 +1064,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-423515184"/>
+        <c:crossAx val="253607152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-423515184"/>
+        <c:axId val="253607152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1111,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1070,10 +1123,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-423533136"/>
+        <c:crossAx val="253606592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,7 +1154,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1113,7 +1166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1143,7 +1196,2041 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>POCO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deserialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="210377312"/>
+        <c:axId val="258284256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="210377312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258284256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258284256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210377312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Array</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$19:$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deserialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$19:$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$19:$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (upgrade lib)'!$I$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="262036384"/>
+        <c:axId val="262036944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="262036384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262036944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="262036944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262036384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>POCO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deserialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="205197296"/>
+        <c:axId val="205197856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="205197296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205197856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205197856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205197296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Array</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$19:$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deserialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$19:$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$19:$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DataContract</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MessagePack</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MessagePackMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="205201776"/>
+        <c:axId val="205202336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="205201776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205202336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205202336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205201776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1234,6 +3321,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2240,7 +4487,2157 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2306,7 +6703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2568,13 +6965,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H10:N22"/>
+  <dimension ref="H10:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>399</v>
+      </c>
+      <c r="J13">
+        <v>337</v>
+      </c>
+      <c r="K13">
+        <v>61</v>
+      </c>
+      <c r="L13">
+        <v>234</v>
+      </c>
+      <c r="M13">
+        <v>75</v>
+      </c>
+      <c r="N13">
+        <v>113</v>
+      </c>
+      <c r="O13">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="14" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>385</v>
+      </c>
+      <c r="J14">
+        <v>829</v>
+      </c>
+      <c r="K14">
+        <v>88</v>
+      </c>
+      <c r="L14">
+        <v>301</v>
+      </c>
+      <c r="M14">
+        <v>113</v>
+      </c>
+      <c r="N14">
+        <v>167</v>
+      </c>
+      <c r="O14">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="15" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>305</v>
+      </c>
+      <c r="J15">
+        <v>746</v>
+      </c>
+      <c r="K15">
+        <v>88</v>
+      </c>
+      <c r="L15">
+        <v>167</v>
+      </c>
+      <c r="M15">
+        <v>89</v>
+      </c>
+      <c r="N15">
+        <v>137</v>
+      </c>
+      <c r="O15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2378</v>
+      </c>
+      <c r="J20">
+        <v>1821</v>
+      </c>
+      <c r="K20">
+        <v>1424</v>
+      </c>
+      <c r="L20">
+        <v>1442</v>
+      </c>
+      <c r="M20">
+        <v>288</v>
+      </c>
+      <c r="N20">
+        <v>717</v>
+      </c>
+      <c r="O20">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="21" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2173</v>
+      </c>
+      <c r="J21">
+        <v>4434</v>
+      </c>
+      <c r="K21">
+        <v>1712</v>
+      </c>
+      <c r="L21">
+        <v>1951</v>
+      </c>
+      <c r="M21">
+        <v>644</v>
+      </c>
+      <c r="N21">
+        <v>1295</v>
+      </c>
+      <c r="O21">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="22" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>712</v>
+      </c>
+      <c r="J22">
+        <v>4525</v>
+      </c>
+      <c r="K22">
+        <v>255</v>
+      </c>
+      <c r="L22">
+        <v>1043</v>
+      </c>
+      <c r="M22">
+        <v>256</v>
+      </c>
+      <c r="N22">
+        <v>736</v>
+      </c>
+      <c r="O22">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H10:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="10" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H10" s="1" t="s">
@@ -2611,6 +7260,216 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <v>395</v>
+      </c>
+      <c r="J13">
+        <v>338</v>
+      </c>
+      <c r="K13">
+        <v>66</v>
+      </c>
+      <c r="L13">
+        <v>375</v>
+      </c>
+      <c r="M13">
+        <v>119</v>
+      </c>
+      <c r="N13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>378</v>
+      </c>
+      <c r="J14">
+        <v>829</v>
+      </c>
+      <c r="K14">
+        <v>121</v>
+      </c>
+      <c r="L14">
+        <v>411</v>
+      </c>
+      <c r="M14">
+        <v>281</v>
+      </c>
+      <c r="N14">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>305</v>
+      </c>
+      <c r="J15">
+        <v>746</v>
+      </c>
+      <c r="K15">
+        <v>88</v>
+      </c>
+      <c r="L15">
+        <v>167</v>
+      </c>
+      <c r="M15">
+        <v>89</v>
+      </c>
+      <c r="N15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2352</v>
+      </c>
+      <c r="J20">
+        <v>1887</v>
+      </c>
+      <c r="K20">
+        <v>1186</v>
+      </c>
+      <c r="L20">
+        <v>2883</v>
+      </c>
+      <c r="M20">
+        <v>410</v>
+      </c>
+      <c r="N20">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2163</v>
+      </c>
+      <c r="J21">
+        <v>4409</v>
+      </c>
+      <c r="K21">
+        <v>1583</v>
+      </c>
+      <c r="L21">
+        <v>2849</v>
+      </c>
+      <c r="M21">
+        <v>1620</v>
+      </c>
+      <c r="N21">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>712</v>
+      </c>
+      <c r="J22">
+        <v>4525</v>
+      </c>
+      <c r="K22">
+        <v>255</v>
+      </c>
+      <c r="L22">
+        <v>1043</v>
+      </c>
+      <c r="M22">
+        <v>256</v>
+      </c>
+      <c r="N22">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H10:N22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>735</v>
       </c>
       <c r="J13">
